--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1081">
   <si>
     <t>Category</t>
   </si>
@@ -52,7 +52,7 @@
     <t>EN-12, EN Block, Sector V, Bidhannagar, Kolkata, West Bengal 700091</t>
   </si>
   <si>
-    <t>22.5731° N, 88.4321° E</t>
+    <t>22.5731, 88.4321</t>
   </si>
   <si>
     <t>3M India</t>
@@ -136,7 +136,7 @@
     <t>Noida</t>
   </si>
   <si>
-    <t>28.5493° N, 77.2678° E</t>
+    <t>28.5493, 77.2678</t>
   </si>
   <si>
     <t>Aarogya Setu</t>
@@ -166,7 +166,7 @@
     <t>Ayush Bhawan, B Block, INA Colony, New Delhi 110023</t>
   </si>
   <si>
-    <t>28.574471,77.213912</t>
+    <t>28.574471, 77.213912</t>
   </si>
   <si>
     <t>Practo</t>
@@ -352,7 +352,7 @@
     <t>Chandigarh</t>
   </si>
   <si>
-    <t>30.7667° N, 76.7774° E</t>
+    <t>30.7667, 76.7774</t>
   </si>
   <si>
     <t>The Ahmedabad Civil Hospital</t>
@@ -364,7 +364,7 @@
     <t>Ahmedabad</t>
   </si>
   <si>
-    <t>23.0488° N, 72.6083° E</t>
+    <t>23.0488, 72.6083</t>
   </si>
   <si>
     <t>Government Multi Specialty Hospital</t>
@@ -373,7 +373,7 @@
     <t>http://chandigarh.gov.in/dept_hlt.htm</t>
   </si>
   <si>
-    <t>30.7456° N, 76.7777° E</t>
+    <t>30.7456, 76.7777</t>
   </si>
   <si>
     <t>Ram Manohar Lohia Combined Hospital</t>
@@ -385,7 +385,7 @@
     <t>Lucknow</t>
   </si>
   <si>
-    <t>26.8496° N, 81.0072° E</t>
+    <t>26.8496, 81.0072</t>
   </si>
   <si>
     <t>Lala Lajpat Rai Hospital (Hallett Hospital)</t>
@@ -397,7 +397,7 @@
     <t>Kanpur</t>
   </si>
   <si>
-    <t>26.4499° N, 80.3319° E</t>
+    <t>26.4499, 80.3319</t>
   </si>
   <si>
     <t>Madhuraj Hospital Private Limited</t>
@@ -409,7 +409,7 @@
     <t>Private Hospital</t>
   </si>
   <si>
-    <t>26.4493° N, 80.3349° E</t>
+    <t>26.4493, 80.3349</t>
   </si>
   <si>
     <t>Regency Hospital</t>
@@ -418,7 +418,7 @@
     <t>http://regencyhealthcare.in/</t>
   </si>
   <si>
-    <t>26.4817° N, 80.2649° E</t>
+    <t>26.4817, 80.2649</t>
   </si>
   <si>
     <t>Krishna Super Speciality Hospital</t>
@@ -427,7 +427,7 @@
     <t>http://www.krishnahospital.org.in/</t>
   </si>
   <si>
-    <t>26.4827° N, 80.2642° E</t>
+    <t>26.4827, 80.2642</t>
   </si>
   <si>
     <t>Heritage Hospitals</t>
@@ -439,7 +439,7 @@
     <t>Varanasi</t>
   </si>
   <si>
-    <t>25.2814° N, 82.9979° E</t>
+    <t>25.2814, 82.9979</t>
   </si>
   <si>
     <t>Vatsalya Hospital</t>
@@ -451,7 +451,7 @@
     <t>Prayagraj</t>
   </si>
   <si>
-    <t>25.4358° N, 81.8463° E</t>
+    <t>25.4358, 81.8463</t>
   </si>
   <si>
     <t>Fortis Hospital</t>
@@ -463,7 +463,7 @@
     <t>Ludhiana</t>
   </si>
   <si>
-    <t>30.9020° N, 75.8571° E</t>
+    <t>30.9020, 75.8571</t>
   </si>
   <si>
     <t>Dayanand Medical College &amp; Hospital</t>
@@ -472,7 +472,7 @@
     <t>https://www.dmch.edu/</t>
   </si>
   <si>
-    <t>30.9029° N, 75.8569° E</t>
+    <t>30.9029, 75.8569</t>
   </si>
   <si>
     <t>Christian Medical College</t>
@@ -481,7 +481,7 @@
     <t>http://www.cmcludhiana.in/</t>
   </si>
   <si>
-    <t>30.9010° N, 75.8573° E</t>
+    <t>30.9010, 75.8573</t>
   </si>
   <si>
     <t>Fortis Escorts Hospital, Jaipur</t>
@@ -493,7 +493,7 @@
     <t>Jaipur</t>
   </si>
   <si>
-    <t>26.9124° N, 75.7873° E</t>
+    <t>26.9124, 75.7873</t>
   </si>
   <si>
     <t>Shalby Multi-Specialty Hospital, Jaipur</t>
@@ -502,7 +502,7 @@
     <t>https://www.shalby.org/contact-us/jaipur-shalby-hospital/?utm_source=google_map&amp;utm_medium=organic&amp;utm_campaign=Shalby_Multi_Specialty_Hospital_Jaipur</t>
   </si>
   <si>
-    <t>26.9184° N, 75.7879° E</t>
+    <t>26.9184, 75.7879</t>
   </si>
   <si>
     <t>Mahavir Jaipuria Rajasthan Hospital</t>
@@ -511,7 +511,7 @@
     <t>http://www.rajasthanhospital.in/</t>
   </si>
   <si>
-    <t>26.9131° N, 75.7867° E</t>
+    <t>26.9131, 75.7867</t>
   </si>
   <si>
     <t>AIIMS Hospital</t>
@@ -523,7 +523,7 @@
     <t>Bhopal</t>
   </si>
   <si>
-    <t>23.2599° N, 77.4126° E</t>
+    <t>23.2599, 77.4126</t>
   </si>
   <si>
     <t>Bhopal Memorial Hospital​ And Research Centre​ (GOV)</t>
@@ -532,7 +532,7 @@
     <t>http://www.nhp.gov.in/hospital/bhopal-memorial-hospital-and-research-center-bhopal-madhya_pradesh</t>
   </si>
   <si>
-    <t>23.2592° N, 77.4121° E</t>
+    <t>23.2592, 77.4121</t>
   </si>
   <si>
     <t>Matratva Hospital</t>
@@ -541,7 +541,7 @@
     <t>https://www.practo.com/bhopal/hospital/matratva-hospital-kolar-road-1</t>
   </si>
   <si>
-    <t>23.2589° N, 77.4131° E</t>
+    <t>23.2589, 77.4131</t>
   </si>
   <si>
     <t>KRIMS Hospitals - Multispeciality | Critical Care Hospital</t>
@@ -553,7 +553,7 @@
     <t>Nagpur</t>
   </si>
   <si>
-    <t>21.1458° N, 79.0882° E</t>
+    <t>21.1458, 79.0882</t>
   </si>
   <si>
     <t>SevenStar Hospital</t>
@@ -562,7 +562,7 @@
     <t>http://sevenstarhospitals.com/</t>
   </si>
   <si>
-    <t>21.1451° N, 79.0889° E</t>
+    <t>21.1451, 79.0889</t>
   </si>
   <si>
     <t>Center Point Hospital</t>
@@ -571,7 +571,7 @@
     <t>http://www.centerpointhospital.in/</t>
   </si>
   <si>
-    <t>21.1454° N, 79.0895° E</t>
+    <t>21.1454, 79.0895</t>
   </si>
   <si>
     <t>Columbia Asia Hospital Salt Lake, Kolkata</t>
@@ -583,7 +583,7 @@
     <t>Kolkata</t>
   </si>
   <si>
-    <t>22.5726° N, 88.3639° E</t>
+    <t>22.5726, 88.3639</t>
   </si>
   <si>
     <t xml:space="preserve">Ruby General Hospital </t>
@@ -595,7 +595,7 @@
     <t>General Hospital</t>
   </si>
   <si>
-    <t>22.5736° N, 88.3631° E</t>
+    <t>22.5736, 88.3631</t>
   </si>
   <si>
     <t>AMRI Hospital</t>
@@ -604,7 +604,7 @@
     <t>https://www.amrihospitals.in/</t>
   </si>
   <si>
-    <t>22.5716° N, 88.3619° E</t>
+    <t>22.5716, 88.3619</t>
   </si>
   <si>
     <t>Apollo Hospitals Sheshadripuram Bangalore</t>
@@ -616,7 +616,7 @@
     <t xml:space="preserve">Bangalore </t>
   </si>
   <si>
-    <t>12.9726° N, 77.5546° E</t>
+    <t>12.9726, 77.5546</t>
   </si>
   <si>
     <t xml:space="preserve">Vikram Hospital </t>
@@ -625,7 +625,7 @@
     <t>http://www.vikramhospital.com/</t>
   </si>
   <si>
-    <t>12.9711° N, 77.5946° E</t>
+    <t>12.9711, 77.5946</t>
   </si>
   <si>
     <t>Kauvery Hospital Chennai</t>
@@ -637,7 +637,7 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>13.0827° N, 80.2707° E</t>
+    <t>13.0827, 80.2707</t>
   </si>
   <si>
     <t>Fortis Hospital Mulund</t>
@@ -649,7 +649,7 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>19.1136° N, 72.8697° E</t>
+    <t>19.1136, 72.8697</t>
   </si>
   <si>
     <t xml:space="preserve">Lok Nayak Hospital and GB Pant Hospital </t>
@@ -661,7 +661,7 @@
     <t>(Jawahar Lal Nehru Marg,Delhi - 110002)</t>
   </si>
   <si>
-    <t>28.5829,77.2344.</t>
+    <t>28.5829, 77.2344</t>
   </si>
   <si>
     <t>Rajiv Gandhi Super Speciality Hospital</t>
@@ -670,7 +670,7 @@
     <t>(Tahirpur, New Delhi - 110064)</t>
   </si>
   <si>
-    <t>28.6870° N, 77.3177° E</t>
+    <t>28.6870, 77.3177</t>
   </si>
   <si>
     <t xml:space="preserve">Guru Tegh Bahadur Hospital </t>
@@ -679,7 +679,7 @@
     <t>(Shahdara,Delhi - 110095)</t>
   </si>
   <si>
-    <t>28.6894° N, 77.2919° E</t>
+    <t>28.6894, 77.2919</t>
   </si>
   <si>
     <t xml:space="preserve">Deen Dayal Upadhyay Hospital </t>
@@ -688,7 +688,7 @@
     <t>(Hari Nagar, New Delhi - 110064)</t>
   </si>
   <si>
-    <t>28.6249° N, 77.1109° E</t>
+    <t>28.6249, 77.1109</t>
   </si>
   <si>
     <t xml:space="preserve">Dr Baba Saheb Ambedkar Hospital </t>
@@ -697,7 +697,7 @@
     <t>Sector 6, Rohini, New Delhi - 110085)</t>
   </si>
   <si>
-    <t>28.7383° N, 77.0822° E</t>
+    <t>28.7383, 77.0822</t>
   </si>
   <si>
     <t>East Wing, Max Super Speciality</t>
@@ -820,7 +820,7 @@
     <t>Pan-India</t>
   </si>
   <si>
-    <t>28.7049° N, 77.1021° E</t>
+    <t>28.7049, 77.1021</t>
   </si>
   <si>
     <t>Coursera</t>
@@ -832,7 +832,7 @@
     <t>https://www.coursera.org/</t>
   </si>
   <si>
-    <t>28.7031° N, 77.1035° E</t>
+    <t>28.7031, 77.1035</t>
   </si>
   <si>
     <t>Swayam</t>
@@ -904,7 +904,7 @@
     <t>Pan-India centered at Kharagpur</t>
   </si>
   <si>
-    <t>22.3460° N, 87.2320° E</t>
+    <t>22.3460, 87.2320</t>
   </si>
   <si>
     <t>Fund donations</t>
@@ -925,7 +925,7 @@
     <t>Nirman Bhavan, New Delhi</t>
   </si>
   <si>
-    <t>28.6109° N, 77.2151° E</t>
+    <t>28.6109, 77.2151</t>
   </si>
   <si>
     <t>Prime Minister’s Citizen Assistance and Relief in Emergency Situations Fund (PM CARES Fund)</t>
@@ -958,7 +958,7 @@
     <t>Andhra Pradesh</t>
   </si>
   <si>
-    <t>15.9129° N, 79.7400° E</t>
+    <t>15.9129, 79.7400</t>
   </si>
   <si>
     <t>Haryana Corona Relief Fund</t>
@@ -973,7 +973,7 @@
     <t>Haryana</t>
   </si>
   <si>
-    <t>29.0588° N, 76.0856° E</t>
+    <t>29.0588, 76.0856</t>
   </si>
   <si>
     <t>Chief Minister's Bihar Relief Fund</t>
@@ -988,7 +988,7 @@
     <t>Bihar</t>
   </si>
   <si>
-    <t>25.0961° N, 85.3131° E</t>
+    <t>25.0961, 85.3131</t>
   </si>
   <si>
     <t>CM's Relief Fund for Corona</t>
@@ -1003,7 +1003,7 @@
     <t>Chattisgarh</t>
   </si>
   <si>
-    <t>21.2787° N, 81.8661° E</t>
+    <t>21.2787, 81.8661</t>
   </si>
   <si>
     <t>Delhi CM Relief Fund</t>
@@ -1018,7 +1018,7 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>28.7041° N, 77.1025° E</t>
+    <t>28.7041, 77.1025</t>
   </si>
   <si>
     <t>CM's Covid Relief Fund</t>
@@ -1033,7 +1033,7 @@
     <t>Goa</t>
   </si>
   <si>
-    <t>15.2993° N, 74.1240° E</t>
+    <t>15.2993, 74.1240</t>
   </si>
   <si>
     <t>Chief Minister's Relief Fund</t>
@@ -1048,7 +1048,7 @@
     <t>Gujrat</t>
   </si>
   <si>
-    <t>22.2587° N, 71.1924° E</t>
+    <t>22.2587, 71.1924</t>
   </si>
   <si>
     <t>Other States</t>
@@ -1060,7 +1060,7 @@
     <t>https://www.investindia.gov.in/bip/resources/state-and-national-relief-funds-accepting-donations-covid-19</t>
   </si>
   <si>
-    <t>19.0760° N, 72.8777° E</t>
+    <t>19.0760, 72.8777</t>
   </si>
   <si>
     <t>Donations</t>
@@ -1102,7 +1102,7 @@
     <t>Private Avenue</t>
   </si>
   <si>
-    <t>12.9716° N, 77.5946° E</t>
+    <t>12.9716, 77.5946</t>
   </si>
   <si>
     <t>Financial support providers</t>
@@ -1192,7 +1192,7 @@
     <t>TCS House, Raveline Street</t>
   </si>
   <si>
-    <t>19.0700° N, 72.8338° E</t>
+    <t>19.0700, 72.8338</t>
   </si>
   <si>
     <t>Infosys</t>
@@ -1204,7 +1204,7 @@
     <t>Plot No. 47, Sy. No. 10, Electronics City, Hosur Road</t>
   </si>
   <si>
-    <t>19.0750° N, 72.9338° E</t>
+    <t>19.0750, 72.9338</t>
   </si>
   <si>
     <t>Helpdesk</t>
@@ -1333,7 +1333,7 @@
     <t>https://www.investindia.gov.in</t>
   </si>
   <si>
-    <t>28°36'35.6"N 77°13'19.1"E</t>
+    <t>28.609889, 77.221972</t>
   </si>
   <si>
     <t>PracRiti</t>
@@ -1348,7 +1348,7 @@
     <t>College Based Avenue</t>
   </si>
   <si>
-    <t>28.5829° N, 77.0520° E</t>
+    <t>28.5829, 77.0520</t>
   </si>
   <si>
     <t>Tooloogle</t>
@@ -1441,6 +1441,15 @@
     <t>https://www.aicte-india.org/</t>
   </si>
   <si>
+    <t>Organising challenges</t>
+  </si>
+  <si>
+    <t>https://www.mygov.in/task/covid-19-solution-challenge/</t>
+  </si>
+  <si>
+    <t>28.613751, 77.205584</t>
+  </si>
+  <si>
     <t>Vaccinatory</t>
   </si>
   <si>
@@ -1480,7 +1489,7 @@
     <t>NO 18/1 and 3, Near VST Azamabad, Hyderabad, Telangana 500020</t>
   </si>
   <si>
-    <t>17.406428. 78.505568</t>
+    <t>17.406428, 78.505568</t>
   </si>
   <si>
     <t>Bharat Biotech</t>
@@ -1561,7 +1570,7 @@
     <t>G-4/209, Leela Ram Market Rd, South Extension, Masjid Moth Village, South Extension II, New Delhi, Delhi 110049</t>
   </si>
   <si>
-    <t>28°33'50.0"N 77°13'12.3"E</t>
+    <t>28.563889, 77.220083</t>
   </si>
   <si>
     <t>Maiden Distributors Limited</t>
@@ -1576,7 +1585,7 @@
     <t>Local Shopping Center, BH East Block, Shalimar Bagh Plot No.7 , 1st Floor, Mohan Sadan, Delhi 110088</t>
   </si>
   <si>
-    <t>28°43'00.6"N 77°09'30.9"E</t>
+    <t>28.716833, 77.158583</t>
   </si>
   <si>
     <t>D R Distributors Pvt Ltd</t>
@@ -1588,7 +1597,7 @@
     <t>F2/6, Pocket F, Okhla I, Okhla Industrial Area, New Delhi, Delhi 110020</t>
   </si>
   <si>
-    <t>28°31'05.4"N 77°16'50.6"E</t>
+    <t>28.518167, 77.280722</t>
   </si>
   <si>
     <t xml:space="preserve">jain drug distributors </t>
@@ -1603,7 +1612,7 @@
     <t>1705/5, G.F.,Onkar Bhawan, Bhagirath Palace, Delhi, 110006</t>
   </si>
   <si>
-    <t>28°39'20.2"N 77°13'45.6"E</t>
+    <t>28.655611, 77.229333</t>
   </si>
   <si>
     <t>indian medical distributors</t>
@@ -1618,7 +1627,7 @@
     <t>Shop no. 32 , ground floor, omega mall Plot no. 2 , pocket 5 , rohini, Sector 25, New Delhi, Delhi 110085</t>
   </si>
   <si>
-    <t>28°44'07.9"N 77°05'38.7"E</t>
+    <t>28.735528, 77.094083</t>
   </si>
   <si>
     <t>Meher Distributors Pvt Ltd., Head Office</t>
@@ -1633,7 +1642,7 @@
     <t>75/77,Above Union Bank Of India St, Savata Mali Marg, Mustafa Bazar, Byculla, Mumbai, Maharashtra</t>
   </si>
   <si>
-    <t>18°58'33.9"N 72°50'20.5"E</t>
+    <t>18.976083, 72.839028</t>
   </si>
   <si>
     <t>Inlife Distributors Pvt. Ltd.</t>
@@ -1648,7 +1657,7 @@
     <t>85/N/SG/113, JAI MAHARASHTRA NAGAR 90 FEET ROAD, NEW, Pant Nagar, GHATKOPER (E, Mumbai, Maharashtra 400075</t>
   </si>
   <si>
-    <t>19°04'49.0"N 72°54'42.1"E</t>
+    <t>19.080278, 72.911694</t>
   </si>
   <si>
     <t>Candid Drug Distributors</t>
@@ -1660,7 +1669,7 @@
     <t>Shop No, 46-B, Radha Bazar Ln, Chitpur, Lal Bazar, Kolkata, West Bengal 700001</t>
   </si>
   <si>
-    <t>22°34'23.9"N 88°21'10.6"E</t>
+    <t>22.573306, 88.352944</t>
   </si>
   <si>
     <t>Roy Agency Pharmaceutical Distributor</t>
@@ -1672,7 +1681,7 @@
     <t>284, Diamond Harbour Rd, Panchanan Tala, Behala, Kolkata, West Bengal 700034</t>
   </si>
   <si>
-    <t>22°30'08.3"N 88°19'04.5"E</t>
+    <t>22.502306, 88.317917</t>
   </si>
   <si>
     <t>Vardhaman Pharma Distributors</t>
@@ -1684,7 +1693,7 @@
     <t>1, 3rd Cross Rd, Jai Jawan Nagar, Subbaiyapalya, Banaswadi, Bengaluru, Karnataka 560043</t>
   </si>
   <si>
-    <t>13°00'28.7"N 77°38'33.3"E</t>
+    <t>13.007972, 77.642583</t>
   </si>
   <si>
     <t>Medisales Distributor</t>
@@ -1696,7 +1705,7 @@
     <t>59, Birhana Rd, Naughara, Kahoo Kothi, General Ganj, Kanpur, Uttar Pradesh 208001</t>
   </si>
   <si>
-    <t>26°27'43.6"N 80°21'12.8"E</t>
+    <t>26.462111, 80.353556</t>
   </si>
   <si>
     <t>A.B. &amp; Sons</t>
@@ -1708,7 +1717,7 @@
     <t>Shop no. 58, 49, Birhana Rd, Opposite Lala Purshottamdas Jwellers, Naughara, Kanpur, Uttar Pradesh 208001</t>
   </si>
   <si>
-    <t>26°27'45.3"N 80°21'15.1"E</t>
+    <t>26.462583, 80.354194</t>
   </si>
   <si>
     <t>Jaipur Drug Distributors</t>
@@ -1723,7 +1732,7 @@
     <t>Dalda Factory Rd, Jadon Nagar, Raghu Vihar, Durgapura, Jaipur, Rajasthan 302018</t>
   </si>
   <si>
-    <t>26°51'06.5"N 75°47'09.5"E</t>
+    <t>26.851806, 75.785972</t>
   </si>
   <si>
     <t>Infection control</t>
@@ -1738,7 +1747,7 @@
     <t>https://www.urbancompany.com/delhi-ncr</t>
   </si>
   <si>
-    <t>28°37'53.9"N 77°13'15.8"E</t>
+    <t>28.631639, 77.221056</t>
   </si>
   <si>
     <t xml:space="preserve">SS DECOR </t>
@@ -1747,7 +1756,7 @@
     <t>68 A, DDA Flat, Shahpur Jat, Near Asian Game Complex, Near Asian Game Complex, Khazoori Khas,new delhi 110049</t>
   </si>
   <si>
-    <t>28°32'55.3"N 77°12'55.7"E</t>
+    <t>28.548694, 77.215472</t>
   </si>
   <si>
     <t xml:space="preserve">Resonance automation and machines </t>
@@ -1762,7 +1771,7 @@
     <t>plot No. 1131, Hari Encalve, Kirari Suleman Nagar, Sultanpuri, New Delhi - 110086, Delhi</t>
   </si>
   <si>
-    <t>28°41'40.3"N 77°04'01.6"E</t>
+    <t>28.694528, 77.067111</t>
   </si>
   <si>
     <t xml:space="preserve">Hi bro product </t>
@@ -1771,7 +1780,7 @@
     <t>27, 3rd Floor, 2044/6, Chuna Mandi, Paharganj, Delhi - 110055, Delhi</t>
   </si>
   <si>
-    <t>28°38'38.8"N 77°12'35.9"E</t>
+    <t>28.644111, 77.209972</t>
   </si>
   <si>
     <t>Smart kare kar Service</t>
@@ -1780,13 +1789,13 @@
     <t>C-10, opposite Samudai Bhawan, Shastri Park, Delhi, 110053</t>
   </si>
   <si>
-    <t>28°40'11.7"N 77°15'19.7"E</t>
+    <t>28.669917, 77.255472</t>
   </si>
   <si>
     <t xml:space="preserve">EUROKART disinfectant tunnel </t>
   </si>
   <si>
-    <t>28°39'32.1"N 77°12'57.6"E</t>
+    <t>28.658917, 77.216000</t>
   </si>
   <si>
     <t>Droom</t>
@@ -1798,7 +1807,7 @@
     <t>https://droom.in/health</t>
   </si>
   <si>
-    <t>28°29'05.2"N 77°03'49.0"E</t>
+    <t>28.484778, 77.063611</t>
   </si>
   <si>
     <t>Contact Tracing</t>
@@ -1813,7 +1822,7 @@
     <t>https://play.google.com/store/apps/details?id=nic.goi.aarogyasetu</t>
   </si>
   <si>
-    <t>28°33'00.5"N 77°12'12.4"E</t>
+    <t>28.550139, 77.203444</t>
   </si>
   <si>
     <t>COVID-19 Quarantine Monitor Tamil Nadu (official)</t>
@@ -1852,7 +1861,7 @@
     <t>https://play.google.com/store/apps/details?id=com.innovaccer.testyourselfgoa</t>
   </si>
   <si>
-    <t>15°28'03.9"N 73°57'21.5"E</t>
+    <t>15.467750, 73.955972</t>
   </si>
   <si>
     <t>GoK Direct - Kerala</t>
@@ -1861,7 +1870,7 @@
     <t>https://play.google.com/store/apps/details?id=com.qkopy.prdkerala</t>
   </si>
   <si>
-    <t>9°54'34.9"N 76°40'47.4"E</t>
+    <t>9.909694, 76.679833</t>
   </si>
   <si>
     <t>Test Yourself Puducherry</t>
@@ -1870,7 +1879,7 @@
     <t>https://play.google.com/store/apps/details?id=com.innovaccer.testyourselfpuddu</t>
   </si>
   <si>
-    <t>11°56'44.2"N 79°48'20.0"E</t>
+    <t>11.945611, 79.805556</t>
   </si>
   <si>
     <t>Jaano</t>
@@ -1879,7 +1888,7 @@
     <t>https://play.google.com/store/apps/details?id=com.jaano.android</t>
   </si>
   <si>
-    <t>28°35'46.5"N 77°00'04.4"E</t>
+    <t>28.596250, 77.001222</t>
   </si>
   <si>
     <t>COVID-19 West Bengal Government</t>
@@ -1888,7 +1897,7 @@
     <t>https://play.google.com/store/apps/details?id=com.pixxonai.covid19wb</t>
   </si>
   <si>
-    <t>22°31'54.7"N 88°21'35.6"E</t>
+    <t>22.531861, 88.359889</t>
   </si>
   <si>
     <t>Corona Mukt Himachal</t>
@@ -1897,7 +1906,7 @@
     <t>https://play.google.com/store/apps/details?id=com.developmentlogics.patientgeotracker</t>
   </si>
   <si>
-    <t>31°56'45.3"N 77°05'49.4"E</t>
+    <t>31.945917, 77.097056</t>
   </si>
   <si>
     <t>COVID CARE</t>
@@ -1906,7 +1915,7 @@
     <t>https://play.google.com/store/apps/details?id=app.igotit.covidcare</t>
   </si>
   <si>
-    <t>31°56'45.1"N 77°05'49.3"E</t>
+    <t>31.945317, 77.097056</t>
   </si>
   <si>
     <t>Covid Locator</t>
@@ -1915,7 +1924,7 @@
     <t>https://play.google.com/store/apps/details?id=com.intutrack.covidtrack</t>
   </si>
   <si>
-    <t>15°20'37.4"N 74°06'00.6"E</t>
+    <t>15.343722, 74.100167</t>
   </si>
   <si>
     <t>Odisha COVID Dashboard</t>
@@ -1924,7 +1933,7 @@
     <t>https://play.google.com/store/apps/details?id=com.ocac.covidodisha</t>
   </si>
   <si>
-    <t>20°59'20.6"N 83°23'21.6"E</t>
+    <t>20.989056, 83.389333</t>
   </si>
   <si>
     <t>Kavach</t>
@@ -1933,7 +1942,7 @@
     <t>https://play.google.com/store/apps/details?id=in.gov.chhattisgarh.cova</t>
   </si>
   <si>
-    <t>21°12'16.9"N 81°47'02.0"E</t>
+    <t>21.204694, 81.783889</t>
   </si>
   <si>
     <t xml:space="preserve">Trackmetic - (Niramoy) </t>
@@ -1942,7 +1951,7 @@
     <t>https://play.google.com/store/apps/details?id=com.pol.help.info</t>
   </si>
   <si>
-    <t>26°15'15.5"N 92°20'18.9"E</t>
+    <t>26.254306, 92.338583</t>
   </si>
   <si>
     <t>Telangana Covid19 Tracker</t>
@@ -1951,7 +1960,7 @@
     <t>https://play.google.com/store/apps/details?id=com.corona.tscovid_19</t>
   </si>
   <si>
-    <t>17°37'59.4"N 78°47'34.6"E</t>
+    <t>17.633167, 78.792944</t>
   </si>
   <si>
     <t>Haryana Sahayak</t>
@@ -1960,7 +1969,7 @@
     <t>https://play.google.com/store/apps/details?id=hr.gov.covid19.sahayak</t>
   </si>
   <si>
-    <t>29°06'20.8"N 75°57'40.1"E</t>
+    <t>29.105778, 75.961139</t>
   </si>
   <si>
     <t>UP Self- Quarantine App</t>
@@ -1969,7 +1978,7 @@
     <t>https://play.google.com/store/apps/details?id=com.covid19.dgmup</t>
   </si>
   <si>
-    <t>26°25'53.7"N 80°18'47.3"E</t>
+    <t>26.431583, 80.313139</t>
   </si>
   <si>
     <t>nCOVID-19 Nagaland - Visitors App</t>
@@ -1978,7 +1987,7 @@
     <t>https://play.google.com/store/apps/details?id=com.tattvafoundation.ncovid</t>
   </si>
   <si>
-    <t>25°53'29.0"N 94°03'58.6"E</t>
+    <t>25.891389, 94.066278</t>
   </si>
   <si>
     <t>RajCop Citizen</t>
@@ -1987,7 +1996,7 @@
     <t>https://play.google.com/store/apps/details?id=com.datainfosys.rajasthanpolice.publicapp</t>
   </si>
   <si>
-    <t>26°53'47.4"N 75°43'38.3"E</t>
+    <t>26.896500, 75.727306</t>
   </si>
   <si>
     <t>GCC - Corona Monitoring</t>
@@ -1996,7 +2005,7 @@
     <t>https://play.google.com/store/apps/details?id=com.gcc.smartcity</t>
   </si>
   <si>
-    <t>13°02'27.9"N 80°10'19.5"E</t>
+    <t>13.041083, 80.172083</t>
   </si>
   <si>
     <t>MP COVID RESPONSE APP</t>
@@ -2005,7 +2014,7 @@
     <t>https://play.google.com/store/apps/details?id=com.covidmp.coronago</t>
   </si>
   <si>
-    <t>22°52'44.5"N 76°39'54.6"E</t>
+    <t>22.879028, 76.665167</t>
   </si>
   <si>
     <t>NMC COVID-19</t>
@@ -2014,7 +2023,7 @@
     <t>https://play.google.com/store/apps/details?id=com.kodwell.nmccovid_19</t>
   </si>
   <si>
-    <t>19°58'13.2"N 73°44'36.3"E</t>
+    <t>19.970333, 73.743417</t>
   </si>
   <si>
     <t>COVID-19 Odisha</t>
@@ -2023,7 +2032,7 @@
     <t>https://play.google.com/store/apps/details?id=odisha.gov.covid19</t>
   </si>
   <si>
-    <t>20°18'14.8"N 83°57'28.4"E</t>
+    <t>20.304111, 83.957889</t>
   </si>
   <si>
     <t>T COVID'19</t>
@@ -2032,7 +2041,7 @@
     <t>https://play.google.com/store/apps/details?id=com.tsstate.citizen</t>
   </si>
   <si>
-    <t>18°00'41.9"N 78°33'04.5"E</t>
+    <t>18.011639, 78.551250</t>
   </si>
   <si>
     <t>SMC COVID-19 Tracker</t>
@@ -2041,7 +2050,7 @@
     <t>https://play.google.com/store/apps/details?id=in.smc.covidout</t>
   </si>
   <si>
-    <t>21°12'11.7"N 72°50'45.1"E</t>
+    <t>21.203250, 72.845861</t>
   </si>
   <si>
     <t>Jan Aapurti - Uttarakhand</t>
@@ -2050,7 +2059,7 @@
     <t>https://play.google.com/store/apps/details?id=com.callippus.wfppds</t>
   </si>
   <si>
-    <t>26°25'45.6"N 80°18'52.9"E</t>
+    <t>26.429333, 80.314694</t>
   </si>
   <si>
     <t>Jharkhand Sahayta</t>
@@ -2059,7 +2068,7 @@
     <t>https://play.google.com/store/apps/details?id=in.nic.jhk.mukhyamantrisahayata</t>
   </si>
   <si>
-    <t>23°19'55.8"N 85°18'00.1"E</t>
+    <t>23.332167, 85.300028</t>
   </si>
   <si>
     <t>Bharatpur Metropolitan | COVID-19 Response System</t>
@@ -2068,7 +2077,7 @@
     <t>https://play.google.com/store/apps/details?id=co.cellapp.bharatpurcovid</t>
   </si>
   <si>
-    <t>27°13'30.4"N 77°29'11.6"E</t>
+    <t>27.225111, 77.486556</t>
   </si>
   <si>
     <t>Corona Manager - Ashoknagar</t>
@@ -2077,7 +2086,7 @@
     <t>https://play.google.com/store/apps/details?id=com.rajubros.ashoknagarcovidmanager</t>
   </si>
   <si>
-    <t>24°28'59.9"N 77°42'56.6"E</t>
+    <t>24.483306, 77.715722</t>
   </si>
   <si>
     <t>Diagnostics</t>
@@ -2098,7 +2107,7 @@
     <t>National Reference laboratory, B7 Rd, Block E, Sector 18, Rohini, New Delhi, Delhi 110085</t>
   </si>
   <si>
-    <t>28°44'19.9"N 77°08'11.1"E</t>
+    <t>28.738861, 77.136417</t>
   </si>
   <si>
     <t>Dr Dangs Lab</t>
@@ -2125,7 +2134,7 @@
     <t>Mathura Rd, Sarita Vihar, New Delhi, Delhi 110076</t>
   </si>
   <si>
-    <t>28°31'55.0"N 77°17'13.1"E</t>
+    <t>28.531944, 77.286972</t>
   </si>
   <si>
     <t xml:space="preserve">max labs </t>
@@ -2140,7 +2149,7 @@
     <t>1, 2, Press Enclave Marg, Saket Institutional Area, Saket, New Delhi, Delhi 110017</t>
   </si>
   <si>
-    <t>28°31'39.6"N 77°12'43.5"E</t>
+    <t>28.527667, 77.212083</t>
   </si>
   <si>
     <t>Sir Ganga Ram Hospital Clinical Lab Services</t>
@@ -2155,7 +2164,7 @@
     <t>Sarhadi Gandhi Marg, Old Rajinder Nagar, Rajinder Nagar, New Delhi, Delhi 110060</t>
   </si>
   <si>
-    <t>28°38'19.5"N 77°11'24.1"E</t>
+    <t>28.638750, 77.190028</t>
   </si>
   <si>
     <t>Oncquest Labs Ltd</t>
@@ -2170,7 +2179,7 @@
     <t>3, Factory Rd, adjacent Safdarjung Hospital, Ansari Nagar West, New Delhi, Delhi 110029</t>
   </si>
   <si>
-    <t>28°34'06.7"N 77°12'06.6"E</t>
+    <t>28.568528, 77.201833</t>
   </si>
   <si>
     <t xml:space="preserve"> Prognosis laboratories </t>
@@ -2185,7 +2194,7 @@
     <t>515, 516, behind Gupta Properties, Close to Welcome Hotel (ITC, Sector 19, Pocket 1, Dwarka, New Delhi, Delhi 110075</t>
   </si>
   <si>
-    <t>28°34'48.8"N 77°03'03.6"E</t>
+    <t>28.580222, 77.051000</t>
   </si>
   <si>
     <t xml:space="preserve"> Unipath Specialty laboratory limited</t>
@@ -2200,7 +2209,7 @@
     <t>Sanoma Plaza, 102, 1st Floor, Sheth Mangald Road, opp. Parimal Garden, Ellisbridge, Ahmedabad, Gujarat 380006</t>
   </si>
   <si>
-    <t>23°01'08.8"N 72°33'20.4"E</t>
+    <t>23.019111, 72.555667</t>
   </si>
   <si>
     <t xml:space="preserve"> Supratech Micropath laboratory</t>
@@ -2215,7 +2224,7 @@
     <t>Neuberg Supratech, Ground Floor, Kedar Builiding, Opp. Krupa petrol Pump Parimal garden, Gujarat 380006</t>
   </si>
   <si>
-    <t>23°01'11.7"N 72°33'33.5"E</t>
+    <t>23.019917, 72.559306</t>
   </si>
   <si>
     <t>SN GeneLab Pvt Ltd, President Plaza</t>
@@ -2230,7 +2239,7 @@
     <t>President Plaza - A 2nd Floor, Ring Rd, above Kansaar Hotel, Nanpura, Surat, Gujarat 395001</t>
   </si>
   <si>
-    <t>21°11'00.7"N 72°48'51.7"E</t>
+    <t>21.183528, 72.814361</t>
   </si>
   <si>
     <t xml:space="preserve"> Pangenomics International Pvt Ltd</t>
@@ -2245,7 +2254,7 @@
     <t>1st floor, Sankalp Square II, Juna sharda Mandir, Vijay Cross Rd, Ahmedabad, Gujarat 380006</t>
   </si>
   <si>
-    <t>23°01'10.7"N 72°33'38.7"E</t>
+    <t>23.019639, 72.560750</t>
   </si>
   <si>
     <t>Strand Life Sciences</t>
@@ -2257,7 +2266,7 @@
     <t>A-17, Info Technology Park, Sector 34, Gurugram, Haryana 122001</t>
   </si>
   <si>
-    <t>28°25'45.4"N 77°00'55.9"E</t>
+    <t>28.429278, 77.015528</t>
   </si>
   <si>
     <t xml:space="preserve"> SRL Limited</t>
@@ -2272,7 +2281,7 @@
     <t>SRL,REFERENCE LAB, GP-26, MARUTI INDUSTRIAL ESTATE, Udyog Vihar, Sector 18, Gurugram, Haryana 122015</t>
   </si>
   <si>
-    <t>28°29'21.1"N 77°03'41.9"E</t>
+    <t>28.489194, 77.061639</t>
   </si>
   <si>
     <t xml:space="preserve"> Modern Diagnostic &amp; Research Centre-Lab</t>
@@ -2287,7 +2296,7 @@
     <t>363, 4, New Railway Rd, Sector 12A, Jawahar Nagar, Sector 12, Gurugram, Haryana 122001</t>
   </si>
   <si>
-    <t>28°28'00.4"N 77°01'40.2"E</t>
+    <t>28.466778, 77.027833</t>
   </si>
   <si>
     <t xml:space="preserve"> Core Diagnostics Pvt Ltd</t>
@@ -2302,7 +2311,7 @@
     <t>406, Udyog Vihar III, Sector 20, Gurugram, Haryana 122016</t>
   </si>
   <si>
-    <t>28°30'33.9"N 77°05'29.8"E</t>
+    <t>28.509417, 77.091611</t>
   </si>
   <si>
     <t xml:space="preserve"> MolQ Laboratory</t>
@@ -2317,7 +2326,7 @@
     <t>Plot 28, 29, Electronic City, Phase IV, Udyog Vihar, Sector 18, Gurugram, Haryana 122001</t>
   </si>
   <si>
-    <t>28°30'01.7"N 77°04'19.2"E</t>
+    <t>28.500472, 77.072000</t>
   </si>
   <si>
     <t>Neuberg Anand Reference Laboratory</t>
@@ -2332,7 +2341,7 @@
     <t>Aanand Tower, 54, Bowring Hospital Rd, Shivajinagar`, Bengaluru, Karnataka 560001</t>
   </si>
   <si>
-    <t>12°58'53.3"N 77°36'22.1"E</t>
+    <t>12.981472, 77.606139</t>
   </si>
   <si>
     <t xml:space="preserve"> Cancyte Technologies Pvt Ltd</t>
@@ -2344,7 +2353,7 @@
     <t>Sri Shankara Research Centre 1st Cross, Shankara Matt Premises, Shankarapuram, Basavanagudi, Bengaluru, Karnataka 560004</t>
   </si>
   <si>
-    <t>12°57'15.0"N 77°34'17.8"E</t>
+    <t>12.954167, 77.571611</t>
   </si>
   <si>
     <t>Thyrocare Technologies Limited</t>
@@ -2356,7 +2365,7 @@
     <t>1, Turbhe Rd, Juhu Nagar, T.T.C. Industrial Area, MIDC Industrial Area, Pawne, Navi Mumbai, Maharashtra 400703</t>
   </si>
   <si>
-    <t>19°04'27.3"N 72°59'59.1"E</t>
+    <t>19.074250, 72.999750</t>
   </si>
   <si>
     <t xml:space="preserve"> Suburban Diagnostics (India) Pvt. Ltd.</t>
@@ -2371,7 +2380,7 @@
     <t>The Link, 1st floor, Opp. D.N. Nagar Metro Station Gate No 3, New Link Rd, Extension, Andheri West, Mumbai, Maharashtra 400053</t>
   </si>
   <si>
-    <t>19°07'44.9"N 72°49'54.5"E</t>
+    <t>19.129139, 72.831806</t>
   </si>
   <si>
     <t xml:space="preserve"> Metropolis Healthcare Ltd</t>
@@ -2401,7 +2410,7 @@
     <t>of MIDC, R-282, Thane - Belapur Rd, T.T.C. Industrial Area, Rabale, Navi Mumbai, Maharashtra 400701</t>
   </si>
   <si>
-    <t>19°08'21.2"N 73°00'16.1"E</t>
+    <t>19.139222, 73.004472</t>
   </si>
   <si>
     <t>A.G. Diagnostics Pvt Ltd</t>
@@ -2416,7 +2425,7 @@
     <t>F.P. 147, Nayantara Building ShowRoom No NearTVS Showroom, 01, Bhandarkar Rd, Deccan Gymkhana, Pune, Maharashtra 411004</t>
   </si>
   <si>
-    <t>18°31'07.9"N 73°49'51.9"E</t>
+    <t>18.518861, 73.831083</t>
   </si>
   <si>
     <t>InfeXn Laboratories Private Limited</t>
@@ -2431,7 +2440,7 @@
     <t>A/131, Rd Number 23, Wagle Industrial Estate, Thane West, Thane, Maharashtra 400604</t>
   </si>
   <si>
-    <t>19°11'42.1"N 72°56'54.8"E</t>
+    <t>19.195028, 72.948556</t>
   </si>
   <si>
     <t>iGenetic Diagnostics Pvt Ltd</t>
@@ -2446,7 +2455,7 @@
     <t>Krislon House, 1st Floor, Krishanlal Marwah Marg, Ganesh Nagar, Marol, Andheri East, Mumbai, Maharashtra 400072</t>
   </si>
   <si>
-    <t>19°06'37.0"N 72°53'13.5"E</t>
+    <t>19.110278, 72.887083</t>
   </si>
   <si>
     <t>All India Institute Medical Sciences Delhi</t>
@@ -2464,7 +2473,7 @@
     <t>Sri Aurobindo Marg, Ansari Nagar, Ansari Nagar East, New Delhi, Delhi 110029</t>
   </si>
   <si>
-    <t>28°33'58.1"N 77°12'40.0"E</t>
+    <t>28.566139, 77.211111</t>
   </si>
   <si>
     <t>Lady Hardinge Medical College Delhi</t>
@@ -2479,7 +2488,7 @@
     <t>Lady Hardinge Medical College, Connaught Place, New Delhi, Delhi 110001</t>
   </si>
   <si>
-    <t>28°38'07.9"N 77°12'51.0"E</t>
+    <t>28.635528, 77.214167</t>
   </si>
   <si>
     <t>National Centre for Disease Control</t>
@@ -2494,7 +2503,7 @@
     <t>Shanmugapriya, Brooklands, Coonoor, Tamil Nadu</t>
   </si>
   <si>
-    <t>11°21'01.7"N 76°48'28.9"E</t>
+    <t>11.350472, 76.808028</t>
   </si>
   <si>
     <t xml:space="preserve">Ram Manohar Lohia Hospital Delhi </t>
@@ -2509,7 +2518,7 @@
     <t>Baba Kharak Singh Rd, near Gurudwara Bangla Sahib, Ram Manohar Lohia Hospital, Type III, Connaught Place, New Delhi, Delhi 110001</t>
   </si>
   <si>
-    <t>28°37'32.6"N 77°12'09.8"E</t>
+    <t>28.625722, 77.202722</t>
   </si>
   <si>
     <t>Rajendra Memorial Research Institute of Medical Sciences,patna</t>
@@ -2524,7 +2533,7 @@
     <t>Agam Kuan, Sadikpur, Patna, Bihar 800007</t>
   </si>
   <si>
-    <t>25°35'59.1"N 85°11'51.8"E</t>
+    <t>25.599750, 85.197722</t>
   </si>
   <si>
     <t>Darbhanga Medical College</t>
@@ -2536,7 +2545,7 @@
     <t>DMCH Rd, Allalpatti, Laheriasarai, Darbhanga, Bihar 846003</t>
   </si>
   <si>
-    <t>26°08'02.1"N 85°54'05.8"E</t>
+    <t>26.133917, 85.901611</t>
   </si>
   <si>
     <t>All India Institute of Medical Sciences, Raipur</t>
@@ -2551,7 +2560,7 @@
     <t>Great Eastern Rd, AIIMS Campus, Tatibandh, Raipur, Chhattisgarh 492099</t>
   </si>
   <si>
-    <t>21°15'23.1"N 81°34'47.5"E</t>
+    <t>21.256417, 81.579861</t>
   </si>
   <si>
     <t>Late Baliram Kashyap M Govt. Medical College, Jagdalpur</t>
@@ -2566,7 +2575,7 @@
     <t>Dimrapal, Jagdalpur, Chhattisgarh 494001</t>
   </si>
   <si>
-    <t>19°03'02.5"N 81°56'53.5"E</t>
+    <t>19.050694, 81.948194</t>
   </si>
   <si>
     <t>Gauhati Medical College, Guwahati</t>
@@ -2581,7 +2590,7 @@
     <t>Narakasur Hilltop, Bhangagarh, Guwahati, Assam 781032</t>
   </si>
   <si>
-    <t>26°09'15.2"N 91°46'12.3"E</t>
+    <t>26.154222, 91.770083</t>
   </si>
   <si>
     <t>NGO Networking</t>
@@ -2608,7 +2617,7 @@
     <t>https://www.narang.com/emergency-medical-products-supplies/covid-19/index.php</t>
   </si>
   <si>
-    <t>28.6313° N, 77.1356° E</t>
+    <t>28.6313, 77.1356</t>
   </si>
   <si>
     <t>Goverment Advisory Masks</t>
@@ -2650,7 +2659,7 @@
     <t>Kerala</t>
   </si>
   <si>
-    <t>12.4387° N, 75.2012° E</t>
+    <t>12.4387, 75.2012</t>
   </si>
   <si>
     <t>SAHYOG App</t>
@@ -2665,7 +2674,7 @@
     <t>Survey of India, Union Based Avenue</t>
   </si>
   <si>
-    <t>30.0668° N, 79.0193° E</t>
+    <t>30.0668, 79.0193</t>
   </si>
   <si>
     <t>Self assessment app by Apollo and Airtel</t>
@@ -2692,7 +2701,7 @@
     <t>LSR Delhi</t>
   </si>
   <si>
-    <t>28.5649° N, 77.2403° E</t>
+    <t>28.5649, 77.2403</t>
   </si>
   <si>
     <t>Let's Mediate</t>
@@ -2710,7 +2719,7 @@
     <t>https://play.google.com/store/apps/details?id=bot.touchkin&amp;hl=en_IN</t>
   </si>
   <si>
-    <t>28.7059° N, 77.1035° E</t>
+    <t>28.7059, 77.1035</t>
   </si>
   <si>
     <t>PinkyMind</t>
@@ -2725,7 +2734,7 @@
     <t>https://nowandme.com/</t>
   </si>
   <si>
-    <t>28.7051° N, 77.1022° E</t>
+    <t>28.7051, 77.1022</t>
   </si>
   <si>
     <t>RunAway App</t>
@@ -2734,7 +2743,7 @@
     <t>https://www.runawayapp.com/</t>
   </si>
   <si>
-    <t>12.9676° N, 77.5746° E</t>
+    <t>12.9676, 77.5746</t>
   </si>
   <si>
     <t>Food Providers</t>
@@ -2752,7 +2761,7 @@
     <t>Pan India Food Avenue</t>
   </si>
   <si>
-    <t>28.4581° N, 77.0252° E</t>
+    <t>28.4581, 77.0252</t>
   </si>
   <si>
     <t>Feeding India Zomato</t>
@@ -2761,7 +2770,7 @@
     <t>https://www.feedingindia.org/contact</t>
   </si>
   <si>
-    <t>28.4595° N, 77.0266° E</t>
+    <t>28.4595, 77.0266</t>
   </si>
   <si>
     <t>Give India</t>
@@ -2776,7 +2785,7 @@
     <t>Bangalore Office</t>
   </si>
   <si>
-    <t>12.9726° N, 77.5941° E</t>
+    <t>12.9726, 77.5941</t>
   </si>
   <si>
     <t>Mumbai Office</t>
@@ -2785,7 +2794,7 @@
     <t>Gurugram Office</t>
   </si>
   <si>
-    <t>28.4485° N, 77.0759° E</t>
+    <t>28.4485, 77.0759</t>
   </si>
   <si>
     <t>Food Provider</t>
@@ -2806,7 +2815,7 @@
     <t>Vasant Kunj, New Delhi</t>
   </si>
   <si>
-    <t>28.5293° N, 77.1484° E</t>
+    <t>28.5293, 77.1484</t>
   </si>
   <si>
     <t>Food Corporation of India COVID-19 Scheme</t>
@@ -2818,7 +2827,7 @@
     <t>Government Based Avenue</t>
   </si>
   <si>
-    <t>28.5823° N, 77.0500° E</t>
+    <t>28.5823, 77.0500</t>
   </si>
   <si>
     <t>Art of living</t>
@@ -2833,7 +2842,7 @@
     <t>India</t>
   </si>
   <si>
-    <t>12.9796° N, 77.5196° E</t>
+    <t>12.9796, 77.5196</t>
   </si>
   <si>
     <t>Volunteering orgs</t>
@@ -2854,7 +2863,7 @@
     <t>New Delhi-Based with Pan India Reach</t>
   </si>
   <si>
-    <t>28.6139° N, 77.2090° E</t>
+    <t>28.6139, 77.2090</t>
   </si>
   <si>
     <t>Self4Society</t>
@@ -2872,7 +2881,7 @@
     <t>Mumbai-Based</t>
   </si>
   <si>
-    <t>19.0765° N, 72.8577° E</t>
+    <t>19.0765, 72.8577</t>
   </si>
   <si>
     <t>Volunteering registration</t>
@@ -2905,7 +2914,7 @@
     <t>https://indiasmile.org/fitness/strength-training/</t>
   </si>
   <si>
-    <t>28.7046° N, 77.1021° E</t>
+    <t>28.7046, 77.1021</t>
   </si>
   <si>
     <t>Project Kitabat</t>
@@ -2920,7 +2929,7 @@
     <t>Pan-India Outreach</t>
   </si>
   <si>
-    <t>28.5863° N, 77.0502° E</t>
+    <t>28.5863, 77.0502</t>
   </si>
   <si>
     <t>Heatmaps</t>
@@ -2935,7 +2944,7 @@
     <t>https://www.cio.com/article/3532457/coronavirus-covid-19-heat-map-of-india-inc.html</t>
   </si>
   <si>
-    <t>28.7049° N, 77.1031° E</t>
+    <t>28.7049, 77.1031</t>
   </si>
   <si>
     <t>HeatMaps for COVID-20</t>
@@ -2944,7 +2953,7 @@
     <t>https://www.cio.com/article/3538289/how-covid-19-is-changing-it-spending-priorities-for-cios-in-india.html</t>
   </si>
   <si>
-    <t>28.7047° N, 77.1021° E</t>
+    <t>28.7047, 77.1021</t>
   </si>
   <si>
     <t>Kroll</t>
@@ -2959,7 +2968,7 @@
     <t>https://kroll.com/en/about-us/global-locations/asia-pacific/mumbai</t>
   </si>
   <si>
-    <t>28.7058° N, 77.1034° E</t>
+    <t>28.7058, 77.1034</t>
   </si>
   <si>
     <t>Drona maps(PUNJAB)</t>
@@ -2977,7 +2986,7 @@
     <t>Punjab</t>
   </si>
   <si>
-    <t>31.1471° N, 75.3412° E</t>
+    <t>31.1471, 75.3412</t>
   </si>
   <si>
     <t>The Hindu Interactive Map</t>
@@ -3001,7 +3010,7 @@
     <t>https://mohfw.gov.in/</t>
   </si>
   <si>
-    <t>28.7051° N, 77.1034° E</t>
+    <t>28.7051, 77.1034</t>
   </si>
   <si>
     <t>Kaggle</t>
@@ -3013,7 +3022,7 @@
     <t>https://www.kaggle.com/sudalairajkumar/covid19-in-india</t>
   </si>
   <si>
-    <t>28.7045° N, 77.1031° E</t>
+    <t>28.7045, 77.1031</t>
   </si>
   <si>
     <t>Datagov.in</t>
@@ -3064,7 +3073,7 @@
     <t>#259, Apurva, 4th Cross, 80 feet road, R.M.V. 2nd Stage,Bengaluru, Karnataka 560094, India</t>
   </si>
   <si>
-    <t>13.0422° N, 77.5700° E</t>
+    <t>13.0422, 77.5700</t>
   </si>
   <si>
     <t>Using artificial intelligence (AI) to find new molecules to target the Severe Acute Respiratory Syndrome-Coronavirus 2 or SARS-CoV-2</t>
@@ -3094,7 +3103,7 @@
     <t>1st Floor,R.K.Lake Towers Adjacent to Hebbal FlyoverOuter Ring Road, HebbalBangalore - 560024</t>
   </si>
   <si>
-    <t>13.0354° N, 77.5988° E</t>
+    <t>13.0354, 77.5988</t>
   </si>
   <si>
     <t>1to1help</t>
@@ -3109,7 +3118,7 @@
     <t>https://twitter.com/1to1help, https://www.facebook.com/1to1help, https://www.linkedin.com/company/1to1help-net-pvt--ltd-?</t>
   </si>
   <si>
-    <t>12.9776° N, 77.5146° E</t>
+    <t>12.9776, 77.5146</t>
   </si>
   <si>
     <t>Silver Oak Health</t>
@@ -3127,7 +3136,7 @@
     <t>#448 28th Main, 10th Cross Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
   </si>
   <si>
-    <t>12.9119° N, 77.6446° E</t>
+    <t>12.9119, 77.6446</t>
   </si>
   <si>
     <t>ICASIndia</t>
@@ -3172,7 +3181,7 @@
     <t>https://www.linkedin.com/company/within3</t>
   </si>
   <si>
-    <t>12.9816° N, 77.6946° E</t>
+    <t>12.9816, 77.6946</t>
   </si>
   <si>
     <t>Plus91 Technologies</t>
@@ -3190,7 +3199,7 @@
     <t>Plus91 Technologies Pvt. Ltd.,601/A Phoenix East Court,Next to Phoenix Market City,Off Nagar Road, Vimaan Nagar,Pune 411014</t>
   </si>
   <si>
-    <t>18.5671° N, 73.9141° E</t>
+    <t>18.5671, 73.9141</t>
   </si>
   <si>
     <t>Global Forum</t>
@@ -3235,7 +3244,7 @@
     <t> L6, 2nd Main Road,6th Sector,HSR Layout, Bengaluru, Karnataka 560102</t>
   </si>
   <si>
-    <t>18.5679° N, 73.9143° E</t>
+    <t>18.5679, 73.9143</t>
   </si>
   <si>
     <t>Alert/tracking app</t>
@@ -3251,7 +3260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3307,13 +3316,16 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -3353,7 +3365,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3369,6 +3381,9 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3377,9 +3392,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
@@ -3402,6 +3414,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -3417,28 +3432,40 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3447,10 +3474,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3714,7 +3744,7 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3722,20 +3752,20 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3743,20 +3773,20 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3764,20 +3794,20 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3785,20 +3815,20 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3806,25 +3836,25 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3842,342 +3872,342 @@
       <c r="F8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4186,21 +4216,21 @@
       <c r="C25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4209,21 +4239,21 @@
       <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4232,159 +4262,159 @@
       <c r="C27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4393,21 +4423,21 @@
       <c r="C34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4416,21 +4446,21 @@
       <c r="C35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4439,389 +4469,389 @@
       <c r="C36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>195</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>198</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>205</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -4837,13 +4867,13 @@
       <c r="F53" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="5" t="s">
         <v>216</v>
       </c>
       <c r="H53" s="9"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -4859,13 +4889,13 @@
       <c r="F54" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="5" t="s">
         <v>219</v>
       </c>
       <c r="H54" s="9"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -4881,13 +4911,13 @@
       <c r="F55" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="5" t="s">
         <v>222</v>
       </c>
       <c r="H55" s="9"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -4903,13 +4933,13 @@
       <c r="F56" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="5" t="s">
         <v>225</v>
       </c>
       <c r="H56" s="9"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -4925,233 +4955,233 @@
       <c r="F57" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="5" t="s">
         <v>228</v>
       </c>
       <c r="H57" s="9"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="2" t="s">
         <v>232</v>
       </c>
       <c r="H58" s="9"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="2" t="s">
         <v>235</v>
       </c>
       <c r="H59" s="9"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H60" s="9"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H61" s="9"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H62" s="9"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H63" s="9"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="2" t="s">
         <v>250</v>
       </c>
       <c r="H64" s="9"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="2" t="s">
         <v>253</v>
       </c>
       <c r="H65" s="9"/>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="2" t="s">
         <v>256</v>
       </c>
       <c r="H66" s="9"/>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="2" t="s">
         <v>259</v>
       </c>
       <c r="H67" s="9"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H68" s="9"/>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -5169,13 +5199,13 @@
       <c r="F69" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="5" t="s">
         <v>269</v>
       </c>
       <c r="H69" s="11"/>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -5193,119 +5223,119 @@
       <c r="F70" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="5" t="s">
         <v>273</v>
       </c>
       <c r="H70" s="11"/>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H71" s="12"/>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="2" t="s">
         <v>283</v>
       </c>
       <c r="H72" s="12"/>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5" t="s">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="2" t="s">
         <v>287</v>
       </c>
       <c r="H73" s="13"/>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5" t="s">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="2" t="s">
         <v>291</v>
       </c>
       <c r="H74" s="12"/>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="5" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5328,7 +5358,7 @@
       <c r="F76" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="5" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5351,7 +5381,7 @@
       <c r="F77" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5374,7 +5404,7 @@
       <c r="F78" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="5" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5397,7 +5427,7 @@
       <c r="F79" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="5" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5420,7 +5450,7 @@
       <c r="F80" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5443,7 +5473,7 @@
       <c r="F81" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5466,7 +5496,7 @@
       <c r="F82" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="5" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5489,7 +5519,7 @@
       <c r="F83" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5512,7 +5542,7 @@
       <c r="F84" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="5" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5535,7 +5565,7 @@
       <c r="F85" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="5" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5543,20 +5573,20 @@
       <c r="A86" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="17" t="s">
         <v>353</v>
       </c>
       <c r="E86" s="3"/>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5564,22 +5594,22 @@
       <c r="A87" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="5" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5587,22 +5617,22 @@
       <c r="A88" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="5" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5610,20 +5640,20 @@
       <c r="A89" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="5" t="s">
+      <c r="E89" s="8"/>
+      <c r="F89" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H89" s="9"/>
@@ -5633,20 +5663,20 @@
       <c r="A90" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="5" t="s">
+      <c r="E90" s="8"/>
+      <c r="F90" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="2" t="s">
         <v>374</v>
       </c>
       <c r="H90" s="9"/>
@@ -5662,12 +5692,12 @@
       <c r="C91" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5" t="s">
+      <c r="E91" s="8"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="2" t="s">
         <v>378</v>
       </c>
       <c r="H91" s="9"/>
@@ -5677,20 +5707,20 @@
       <c r="A92" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="5" t="s">
+      <c r="E92" s="8"/>
+      <c r="F92" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="2" t="s">
         <v>383</v>
       </c>
       <c r="H92" s="9"/>
@@ -5700,20 +5730,20 @@
       <c r="A93" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="5" t="s">
+      <c r="E93" s="8"/>
+      <c r="F93" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="2" t="s">
         <v>388</v>
       </c>
       <c r="H93" s="9"/>
@@ -5723,20 +5753,20 @@
       <c r="A94" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="5" t="s">
+      <c r="E94" s="8"/>
+      <c r="F94" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="2" t="s">
         <v>393</v>
       </c>
       <c r="H94" s="9"/>
@@ -5746,216 +5776,216 @@
       <c r="A95" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="5" t="s">
+      <c r="E95" s="8"/>
+      <c r="F95" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="2" t="s">
         <v>397</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
     <row r="96">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="5" t="s">
+      <c r="E96" s="8"/>
+      <c r="F96" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="5" t="s">
+      <c r="E97" s="8"/>
+      <c r="F97" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="5" t="s">
+      <c r="E98" s="8"/>
+      <c r="F98" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="5" t="s">
+      <c r="E99" s="8"/>
+      <c r="F99" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="5" t="s">
+      <c r="E100" s="8"/>
+      <c r="F100" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="5" t="s">
+      <c r="E101" s="8"/>
+      <c r="F101" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="5" t="s">
+      <c r="E102" s="8"/>
+      <c r="F102" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="5" t="s">
+      <c r="E103" s="8"/>
+      <c r="F103" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>432</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="5" t="s">
+      <c r="E104" s="8"/>
+      <c r="F104" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="21" t="s">
         <v>431</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -5964,3449 +5994,3470 @@
       <c r="C105" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="D105" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="E105" s="7"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="22" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F106" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="5" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="14" t="s">
+      <c r="E107" s="8"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="2" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="14" t="s">
+      <c r="E108" s="8"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="2" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="5" t="s">
+      <c r="E109" s="8"/>
+      <c r="F109" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="2" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="5" t="s">
+      <c r="E110" s="8"/>
+      <c r="F110" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="2" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="5" t="s">
+      <c r="E111" s="8"/>
+      <c r="F111" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="2" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="5" t="s">
+      <c r="E112" s="8"/>
+      <c r="F112" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="2" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="20" t="s">
+      <c r="E113" s="8"/>
+      <c r="F113" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="20" t="s">
+      <c r="E114" s="8"/>
+      <c r="F114" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="G114" s="20" t="s">
+      <c r="G114" s="24" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="D115" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="E115" s="8"/>
+      <c r="F115" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D115" s="6" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="C116" s="6" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B116" s="5" t="s">
+      <c r="D116" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D116" s="6" t="s">
+      <c r="E116" s="8"/>
+      <c r="F116" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="5" t="s">
+      <c r="G116" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G116" s="5" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B117" s="5" t="s">
+      <c r="C117" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D117" s="6" t="s">
+      <c r="E117" s="8"/>
+      <c r="F117" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="5" t="s">
+      <c r="G117" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="G117" s="5" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B118" s="5" t="s">
+      <c r="C118" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D118" s="6" t="s">
+      <c r="E118" s="8"/>
+      <c r="F118" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="5" t="s">
+      <c r="G118" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G118" s="5" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B119" s="5" t="s">
+      <c r="C119" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D119" s="6" t="s">
+      <c r="E119" s="8"/>
+      <c r="F119" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="5" t="s">
+      <c r="G119" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G119" s="5" t="s">
+    </row>
+    <row r="120">
+      <c r="A120" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B120" s="5" t="s">
+      <c r="C120" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D120" s="6" t="s">
+      <c r="E120" s="8"/>
+      <c r="F120" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="5" t="s">
+      <c r="G120" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G120" s="5" t="s">
+    </row>
+    <row r="121">
+      <c r="A121" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B121" s="5" t="s">
+      <c r="C121" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="8"/>
+      <c r="F121" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="5" t="s">
+      <c r="G121" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G121" s="5" t="s">
+    </row>
+    <row r="122">
+      <c r="A122" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B122" s="5" t="s">
+      <c r="C122" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D122" s="6" t="s">
+      <c r="E122" s="8"/>
+      <c r="F122" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="5" t="s">
+      <c r="G122" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G122" s="5" t="s">
+    </row>
+    <row r="123">
+      <c r="A123" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="22" t="s">
+      <c r="C123" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="E123" s="8"/>
+      <c r="F123" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="G123" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D123" s="6" t="s">
+    </row>
+    <row r="124">
+      <c r="A124" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="C124" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="D124" s="7" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B124" s="5" t="s">
+      <c r="E124" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D124" s="6" t="s">
+      <c r="F124" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="G124" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="F124" s="3" t="s">
+    </row>
+    <row r="125">
+      <c r="A125" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="C125" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B125" s="5" t="s">
+      <c r="E125" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="6" t="s">
+      <c r="F125" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="G125" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="G125" s="5" t="s">
+    </row>
+    <row r="126">
+      <c r="A126" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D126" s="6" t="s">
+      <c r="F126" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="G126" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="F126" s="5" t="s">
+    </row>
+    <row r="127">
+      <c r="A127" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="C127" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B127" s="5" t="s">
+      <c r="E127" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D127" s="6" t="s">
+      <c r="F127" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="G127" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="F127" s="3" t="s">
+    </row>
+    <row r="128">
+      <c r="A128" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="C128" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B128" s="5" t="s">
+      <c r="E128" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D128" s="6" t="s">
+      <c r="F128" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="G128" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="F128" s="3" t="s">
+    </row>
+    <row r="129">
+      <c r="A129" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="C129" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B129" s="5" t="s">
+      <c r="E129" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D129" s="6" t="s">
+      <c r="F129" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="G129" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="F129" s="3" t="s">
+    </row>
+    <row r="130">
+      <c r="A130" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="C130" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B130" s="5" t="s">
+      <c r="E130" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="6" t="s">
+      <c r="F130" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="G130" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="G130" s="5" t="s">
+    </row>
+    <row r="131">
+      <c r="A131" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B131" s="5" t="s">
+      <c r="C131" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="6" t="s">
+      <c r="F131" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="G131" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="G131" s="5" t="s">
+    </row>
+    <row r="132">
+      <c r="A132" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D132" s="6" t="s">
+      <c r="F132" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="3" t="s">
+      <c r="G132" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="G132" s="5" t="s">
+    </row>
+    <row r="133">
+      <c r="A133" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B133" s="5" t="s">
+      <c r="C133" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="6"/>
+      <c r="F133" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="G133" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="G133" s="5" t="s">
+    </row>
+    <row r="134">
+      <c r="A134" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B134" s="5" t="s">
+      <c r="C134" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="6" t="s">
+      <c r="F134" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="G134" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="G134" s="5" t="s">
+    </row>
+    <row r="135">
+      <c r="A135" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B135" s="5" t="s">
+      <c r="C135" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D135" s="6" t="s">
+      <c r="F135" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="G135" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="F135" s="3" t="s">
+    </row>
+    <row r="136">
+      <c r="A136" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="C136" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="5" t="s">
+      <c r="E136" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="F136" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="G136" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="D136" s="6" t="s">
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B137" s="5" t="s">
+      <c r="C137" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="23">
+      <c r="D137" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="27">
         <v>8.048711974E9</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="F138" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="G138" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="F138" s="5" t="s">
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="C139" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B139" s="5" t="s">
+      <c r="E139" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5">
+      <c r="F139" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G139" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6">
         <v>8.048714252E9</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5">
+      <c r="F140" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G140" s="26" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6">
         <v>9.999700967E9</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5">
+      <c r="F141" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6">
         <v>8.048412023E9</v>
       </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="D142" s="6" t="s">
+      <c r="F142" s="6"/>
+      <c r="G142" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="E142" s="5">
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E143" s="6">
         <v>9.643242126E9</v>
       </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="C143" s="5" t="s">
+      <c r="F143" s="6"/>
+      <c r="G143" s="26" t="s">
         <v>598</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B144" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5" t="s">
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="26" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D145" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5" t="s">
+      <c r="C145" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>605</v>
+      </c>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="28" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D146" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5" t="s">
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="28" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B147" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D147" s="6" t="s">
+      <c r="C147" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5" t="s">
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="28" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D148" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5" t="s">
+      <c r="C148" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>613</v>
+      </c>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="28" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D149" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5" t="s">
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="26" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B150" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D150" s="6" t="s">
+      <c r="C150" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5" t="s">
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="26" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B151" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D151" s="6" t="s">
+      <c r="C151" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5" t="s">
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="26" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B152" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D152" s="6" t="s">
+      <c r="C152" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5" t="s">
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="26" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B153" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D153" s="6" t="s">
+      <c r="C153" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5" t="s">
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="26" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B154" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D154" s="6" t="s">
+      <c r="C154" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="14" t="s">
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="26" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B155" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D155" s="6" t="s">
+      <c r="C155" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5" t="s">
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="26" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B156" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D156" s="6" t="s">
+      <c r="C156" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5" t="s">
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="26" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B157" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D157" s="6" t="s">
+      <c r="C157" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5" t="s">
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="26" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B158" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D158" s="6" t="s">
+      <c r="C158" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5" t="s">
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="26" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B159" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D159" s="6" t="s">
+      <c r="C159" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D159" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5" t="s">
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="26" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B160" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D160" s="6" t="s">
+      <c r="C160" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5" t="s">
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="26" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B161" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D161" s="6" t="s">
+      <c r="C161" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D161" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5" t="s">
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="26" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B162" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D162" s="6" t="s">
+      <c r="C162" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5" t="s">
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="26" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B163" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D163" s="6" t="s">
+      <c r="C163" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D163" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5" t="s">
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="26" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B164" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D164" s="6" t="s">
+      <c r="C164" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D164" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5" t="s">
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="26" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B165" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D165" s="6" t="s">
+      <c r="C165" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D165" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5" t="s">
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="2" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B166" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D166" s="6" t="s">
+      <c r="C166" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5" t="s">
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="2" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B167" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D167" s="6" t="s">
+      <c r="C167" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D167" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5" t="s">
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="2" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B168" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D168" s="6" t="s">
+      <c r="C168" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D168" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5" t="s">
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="2" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B169" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D169" s="6" t="s">
+      <c r="C169" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D169" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5" t="s">
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="2" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B170" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D170" s="6" t="s">
+      <c r="C170" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D170" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5" t="s">
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="2" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B171" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D171" s="6" t="s">
+      <c r="C171" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D171" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5" t="s">
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="2" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B172" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D172" s="6" t="s">
+      <c r="C172" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5" t="s">
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="2" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B173" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D173" s="6" t="s">
+      <c r="C173" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5" t="s">
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="2" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="C174" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D174" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B175" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E175" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D175" s="6" t="s">
+      <c r="F175" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="G175" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="G175" s="5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B176" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D176" s="6" t="s">
+      <c r="E176" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="F176" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="F176" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>704</v>
+      <c r="G176" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B177" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="E177" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D177" s="6" t="s">
+      <c r="F177" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="G177" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B178" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E178" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D178" s="6" t="s">
+      <c r="F178" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="G178" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B179" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D179" s="6" t="s">
+      <c r="F179" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="G179" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B180" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E180" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D180" s="6" t="s">
+      <c r="F180" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="G180" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B181" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D181" s="6" t="s">
+      <c r="F181" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="G181" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B182" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D182" s="6" t="s">
+      <c r="F182" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="G182" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B183" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D183" s="6" t="s">
+      <c r="F183" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="G183" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B184" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D184" s="6" t="s">
+      <c r="F184" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="G184" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B185" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="E185" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D185" s="6" t="s">
+      <c r="F185" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5" t="s">
+      <c r="G185" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B186" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D186" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D186" s="6" t="s">
+      <c r="E186" s="6"/>
+      <c r="F186" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="E186" s="5" t="s">
+      <c r="G186" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B187" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="E187" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="D187" s="6" t="s">
+      <c r="F187" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="G187" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B188" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E188" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D188" s="6" t="s">
+      <c r="F188" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="G188" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B189" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="E189" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D189" s="6" t="s">
+      <c r="F189" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="G189" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B190" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="E190" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D190" s="6" t="s">
+      <c r="F190" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="G190" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B191" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E191" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D191" s="6" t="s">
+      <c r="F191" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5" t="s">
+      <c r="G191" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B192" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D192" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D192" s="6" t="s">
+      <c r="E192" s="6"/>
+      <c r="F192" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5" t="s">
+      <c r="G192" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B193" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D193" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="D193" s="6" t="s">
+      <c r="E193" s="6"/>
+      <c r="F193" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="G193" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B194" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="E194" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D194" s="6" t="s">
+      <c r="F194" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="G194" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B195" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="E195" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D195" s="6" t="s">
+      <c r="F195" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="G195" s="29" t="s">
         <v>794</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B196" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="D196" s="6" t="s">
+      <c r="F196" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="G196" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B197" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E197" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D197" s="6" t="s">
+      <c r="F197" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="G197" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B198" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="E198" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D198" s="6" t="s">
+      <c r="F198" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="G198" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B199" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="E199" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="F199" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="G199" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B200" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="E200" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D200" s="6" t="s">
+      <c r="F200" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="G200" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B201" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="E201" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D201" s="4" t="s">
+      <c r="F201" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="G201" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B202" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="E202" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D202" s="6" t="s">
+      <c r="F202" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="G202" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B203" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="E203" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D203" s="6" t="s">
+      <c r="F203" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="G203" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B204" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="C204" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D204" s="6" t="s">
+      <c r="F204" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5" t="s">
+      <c r="G204" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B205" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D205" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D205" s="6" t="s">
+      <c r="E205" s="6"/>
+      <c r="F205" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="E205" s="5" t="s">
+      <c r="G205" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B206" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="E206" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D206" s="6" t="s">
+      <c r="F206" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="G206" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B207" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E207" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D207" s="6" t="s">
+      <c r="F207" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="G207" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="F207" s="5" t="s">
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="G207" s="5" t="s">
+      <c r="C208" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="24" t="s">
+      <c r="E208" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="F208" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="G208" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D208" s="6" t="s">
+    </row>
+    <row r="209">
+      <c r="A209" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="B209" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="E209" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F209" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G208" s="3" t="s">
+      <c r="G209" s="5" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B210" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="D210" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="E210" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G210" s="5" t="s">
         <v>868</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="F210" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E211" s="7"/>
-      <c r="F211" s="5" t="s">
-        <v>17</v>
+        <v>864</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H211" s="25"/>
+        <v>335</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H212" s="25"/>
+      <c r="D212" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212" s="8"/>
+      <c r="F212" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H212" s="31"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C213" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H213" s="25"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G213" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H213" s="31"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C214" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D214" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H214" s="25"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G214" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H214" s="31"/>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C215" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D215" s="7"/>
-      <c r="E215" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H215" s="25"/>
+      <c r="D215" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H215" s="31"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>335</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="8"/>
+      <c r="E216" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H216" s="31"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="B217" s="26" t="s">
+        <v>873</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="D217" s="6" t="s">
+      <c r="D217" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="E217" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>879</v>
+      <c r="E217" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="B218" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B218" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="E218" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="F218" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="G218" s="5" t="s">
         <v>882</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="B219" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="E219" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="D219" s="6" t="s">
+      <c r="F219" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5" t="s">
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G219" s="3" t="s">
+      <c r="G220" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="D220" s="6" t="s">
+    <row r="221">
+      <c r="A221" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E220" s="5" t="s">
+      <c r="B221" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="E221" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="F220" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C221" s="5" t="s">
+      <c r="F221" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="D221" s="6" t="s">
+      <c r="G221" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="E221" s="5" t="s">
+    </row>
+    <row r="222">
+      <c r="A222" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="F222" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G221" s="3" t="s">
+      <c r="G222" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="D222" s="6" t="s">
+    <row r="223">
+      <c r="A223" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="E222" s="5" t="s">
+      <c r="D223" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="E223" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F222" s="5" t="s">
+      <c r="F223" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G222" s="8" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="E223" s="5" t="s">
+      <c r="G223" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="F224" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G223" s="3" t="s">
+      <c r="G224" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="E224" s="5" t="s">
+    <row r="225">
+      <c r="A225" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="E225" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="F225" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G224" s="8" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="E225" s="5" t="s">
+      <c r="G225" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="E226" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F225" s="5" t="s">
+      <c r="F226" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G225" s="8" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C226" s="3" t="s">
+      <c r="G226" s="5" t="s">
         <v>910</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="D227" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="C227" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="D227" s="4" t="s">
+      <c r="E227" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>912</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G227" s="3" t="s">
+      <c r="G227" s="5" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>917</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>918</v>
       </c>
       <c r="E228" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G228" s="5" t="s">
         <v>919</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="G228" s="8" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>212</v>
+        <v>923</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="5" t="s">
-        <v>925</v>
+      <c r="A231" s="2" t="s">
+        <v>911</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="F231" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="G231" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="D231" s="4" t="s">
+    </row>
+    <row r="232">
+      <c r="A232" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="F231" s="3" t="s">
+      <c r="C232" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="G231" s="3" t="s">
+      <c r="D232" s="4" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="B232" s="5" t="s">
+      <c r="E232" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="D232" s="6" t="s">
+      <c r="F232" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="E232" s="5" t="s">
+      <c r="G232" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="F232" s="5" t="s">
+    </row>
+    <row r="233">
+      <c r="A233" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F233" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G232" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>936</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="D233" s="19" t="s">
+      <c r="G233" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="E233" s="5"/>
-      <c r="F233" s="14" t="s">
+    </row>
+    <row r="234">
+      <c r="A234" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="B234" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="G233" s="8" t="s">
+      <c r="C234" s="16" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="24" t="s">
+      <c r="D234" s="20" t="s">
         <v>941</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="E234" s="6"/>
+      <c r="F234" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="G234" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="D234" s="4" t="s">
+    </row>
+    <row r="235">
+      <c r="A235" s="30" t="s">
         <v>944</v>
       </c>
-      <c r="E234" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="C235" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="D235" s="4" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="24" t="s">
-        <v>941</v>
-      </c>
-      <c r="B235" s="3" t="s">
+      <c r="E235" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="F235" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="D235" s="4" t="s">
+      <c r="G235" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="E235" s="3" t="s">
+    </row>
+    <row r="236">
+      <c r="A236" s="30" t="s">
+        <v>944</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="C236" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="G235" s="8" t="s">
+      <c r="D236" s="4" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="27" t="s">
-        <v>941</v>
-      </c>
-      <c r="B236" s="20" t="s">
+      <c r="E236" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="B237" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="C236" s="20" t="s">
-        <v>954</v>
-      </c>
-      <c r="D236" s="16" t="s">
+      <c r="C237" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="D237" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="E236" s="7"/>
-      <c r="F236" s="20" t="s">
+      <c r="E237" s="8"/>
+      <c r="F237" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="G236" s="5" t="s">
+      <c r="G237" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="D237" s="6" t="s">
+    <row r="238">
+      <c r="A238" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="E237" s="5" t="s">
+      <c r="B238" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="C238" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="G237" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="B238" s="5" t="s">
+      <c r="D238" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="E238" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="D238" s="6" t="s">
+      <c r="F238" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="E238" s="5" t="s">
+      <c r="G238" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="E239" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F238" s="5" t="s">
+      <c r="F239" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G238" s="8" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="D239" s="6" t="s">
+      <c r="G239" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="E239" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="F239" s="5" t="s">
+    </row>
+    <row r="240">
+      <c r="A240" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="G239" s="8" t="s">
+      <c r="C240" s="6" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="5" t="s">
+      <c r="D240" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="E240" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="F240" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="G240" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="D240" s="6" t="s">
+    </row>
+    <row r="241">
+      <c r="A241" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5" t="s">
+      <c r="B241" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G240" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="H240" s="28"/>
-      <c r="I240" s="9"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="B241" s="5" t="s">
+      <c r="G241" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="H241" s="33"/>
+      <c r="I241" s="9"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="D241" s="6" t="s">
+      <c r="C242" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="D242" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E241" s="6" t="s">
-        <v>976</v>
-      </c>
-      <c r="F241" s="5" t="s">
+      <c r="E242" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="F242" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G241" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="H241" s="28"/>
-      <c r="I241" s="9"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="D242" s="6" t="s">
+      <c r="G242" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="E242" s="6" t="s">
+      <c r="H242" s="33"/>
+      <c r="I242" s="9"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="F242" s="5" t="s">
+      <c r="C243" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="F243" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G242" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="H242" s="28"/>
-      <c r="I242" s="9"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="D243" s="6" t="s">
+      <c r="G243" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="E243" s="6" t="s">
+      <c r="H243" s="33"/>
+      <c r="I243" s="9"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="F243" s="5" t="s">
+      <c r="C244" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="G243" s="3" t="s">
+      <c r="D244" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="H243" s="28"/>
-      <c r="I243" s="9"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="B244" s="5" t="s">
+      <c r="E244" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="F244" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="D244" s="6" t="s">
+      <c r="G244" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="G244" s="3" t="s">
+      <c r="H244" s="33"/>
+      <c r="I244" s="9"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="G245" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="H244" s="28"/>
-      <c r="I244" s="9"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="D245" s="5" t="s">
+      <c r="H245" s="33"/>
+      <c r="I245" s="9"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="E245" s="5" t="s">
+      <c r="B246" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="H246" s="9"/>
+      <c r="I246" s="9"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="F245" s="5" t="s">
+      <c r="B247" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F247" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G245" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="H245" s="9"/>
-      <c r="I245" s="9"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="B246" s="5" t="s">
+      <c r="G247" s="5" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="F246" s="5" t="s">
+      <c r="D248" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F248" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G246" s="8" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F247" s="5" t="s">
+      <c r="G248" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F249" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G247" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G248" s="8" t="s">
+      <c r="G249" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="250" ht="18.75" customHeight="1">
+    <row r="250">
       <c r="A250" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="C250" s="29" t="s">
+      <c r="D250" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E250" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="F250" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="251" ht="18.75" customHeight="1">
+      <c r="A251" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E250" s="5" t="s">
+      <c r="B251" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="F250" s="14" t="s">
+      <c r="C251" s="34" t="s">
         <v>1016</v>
       </c>
-      <c r="G250" s="5" t="s">
+      <c r="D251" s="7" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B251" s="5" t="s">
+      <c r="E251" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C251" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E251" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F251" s="5" t="s">
+      <c r="C252" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F252" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G251" s="3" t="s">
+      <c r="G252" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C252" s="30" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D252" s="31" t="s">
+    <row r="253">
+      <c r="A253" s="21" t="s">
         <v>1024</v>
       </c>
-      <c r="E252" s="30" t="s">
+      <c r="B253" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="F252" s="30" t="s">
+      <c r="C253" s="35" t="s">
         <v>1026</v>
       </c>
-      <c r="G252" s="30" t="s">
+      <c r="D253" s="36" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B253" s="5" t="s">
+      <c r="E253" s="35" t="s">
         <v>1028</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="F253" s="35" t="s">
         <v>1029</v>
       </c>
-      <c r="D253" s="6" t="s">
+      <c r="G253" s="37" t="s">
         <v>1030</v>
       </c>
-      <c r="E253" s="6" t="s">
+    </row>
+    <row r="254">
+      <c r="A254" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="F253" s="5" t="s">
+      <c r="C254" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F254" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G253" s="8" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D254" s="6" t="s">
+      <c r="G254" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="E254" s="5" t="s">
+    </row>
+    <row r="255">
+      <c r="A255" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="F254" s="5" t="s">
+      <c r="C255" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="G254" s="5" t="s">
+      <c r="D255" s="7" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B255" s="5" t="s">
+      <c r="E255" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="C255" s="5" t="s">
+      <c r="F255" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="D255" s="6" t="s">
+      <c r="G255" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="E255" s="5" t="s">
+    </row>
+    <row r="256">
+      <c r="A256" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="F255" s="14" t="s">
+      <c r="C256" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="G255" s="5" t="s">
+      <c r="D256" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E256" s="6" t="s">
+    <row r="257">
+      <c r="A257" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="F256" s="5" t="s">
+      <c r="C257" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E257" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F257" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="G257" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D257" s="6" t="s">
+    <row r="258">
+      <c r="A258" s="21" t="s">
         <v>1051</v>
       </c>
-      <c r="E257" s="5" t="s">
+      <c r="B258" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="F257" s="5" t="s">
+      <c r="C258" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F258" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G257" s="8" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D258" s="6" t="s">
+      <c r="G258" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="E258" s="5" t="s">
+    </row>
+    <row r="259">
+      <c r="A259" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="F258" s="14" t="s">
+      <c r="C259" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="G258" s="14" t="s">
+      <c r="D259" s="7" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B259" s="5" t="s">
+      <c r="E259" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="F259" s="14" t="s">
         <v>1061</v>
       </c>
-      <c r="D259" s="6" t="s">
+      <c r="G259" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="E259" s="5" t="s">
+    </row>
+    <row r="260">
+      <c r="A260" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="F259" s="5"/>
-      <c r="G259" s="14" t="s">
+      <c r="C260" s="6" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B260" s="5" t="s">
+      <c r="D260" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="C260" s="5" t="s">
+      <c r="E260" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="D260" s="6" t="s">
+      <c r="F260" s="6"/>
+      <c r="G260" s="14" t="s">
         <v>1067</v>
       </c>
-      <c r="E260" s="5" t="s">
+    </row>
+    <row r="261">
+      <c r="A261" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="F260" s="5"/>
-      <c r="G260" s="5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B261" s="5" t="s">
+      <c r="C261" s="6" t="s">
         <v>1069</v>
       </c>
-      <c r="C261" s="5" t="s">
+      <c r="D261" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="D261" s="6" t="s">
+      <c r="E261" s="6" t="s">
         <v>1071</v>
       </c>
-      <c r="E261" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F261" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G261" s="5" t="s">
-        <v>1074</v>
+      <c r="F261" s="6"/>
+      <c r="G261" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E262" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="B262" s="20" t="s">
+      <c r="F262" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="C262" s="20" t="s">
+      <c r="G262" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="D262" s="6" t="s">
+    </row>
+    <row r="263">
+      <c r="A263" s="23" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B263" s="21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C263" s="21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D263" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E262" s="7"/>
-      <c r="F262" s="5" t="s">
+      <c r="E263" s="8"/>
+      <c r="F263" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G262" s="5" t="s">
+      <c r="G263" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="7"/>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7"/>
-    </row>
     <row r="264">
-      <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="7"/>
-      <c r="E264" s="7"/>
-      <c r="F264" s="7"/>
-      <c r="G264" s="7"/>
-    </row>
-    <row r="266">
-      <c r="C266" s="21"/>
-      <c r="D266" s="20"/>
-      <c r="E266" s="20"/>
-      <c r="F266" s="32"/>
-      <c r="G266" s="7"/>
-      <c r="H266" s="5"/>
-      <c r="I266" s="5"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="8"/>
+      <c r="G264" s="8"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="8"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="23"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="38"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9516,28 +9567,28 @@
     <hyperlink r:id="rId104" ref="D121"/>
     <hyperlink r:id="rId105" ref="D122"/>
     <hyperlink r:id="rId106" ref="D123"/>
-    <hyperlink r:id="rId107" ref="E123"/>
-    <hyperlink r:id="rId108" ref="D124"/>
-    <hyperlink r:id="rId109" ref="E124"/>
+    <hyperlink r:id="rId107" ref="D124"/>
+    <hyperlink r:id="rId108" ref="E124"/>
+    <hyperlink r:id="rId109" ref="D125"/>
     <hyperlink r:id="rId110" ref="E125"/>
-    <hyperlink r:id="rId111" ref="D126"/>
-    <hyperlink r:id="rId112" ref="E126"/>
-    <hyperlink r:id="rId113" ref="D127"/>
-    <hyperlink r:id="rId114" ref="E127"/>
-    <hyperlink r:id="rId115" ref="D128"/>
-    <hyperlink r:id="rId116" ref="E128"/>
-    <hyperlink r:id="rId117" ref="D129"/>
-    <hyperlink r:id="rId118" ref="E129"/>
+    <hyperlink r:id="rId111" ref="E126"/>
+    <hyperlink r:id="rId112" ref="D127"/>
+    <hyperlink r:id="rId113" ref="E127"/>
+    <hyperlink r:id="rId114" ref="D128"/>
+    <hyperlink r:id="rId115" ref="E128"/>
+    <hyperlink r:id="rId116" ref="D129"/>
+    <hyperlink r:id="rId117" ref="E129"/>
+    <hyperlink r:id="rId118" ref="D130"/>
     <hyperlink r:id="rId119" ref="E130"/>
     <hyperlink r:id="rId120" ref="E131"/>
-    <hyperlink r:id="rId121" ref="D132"/>
-    <hyperlink r:id="rId122" ref="E133"/>
+    <hyperlink r:id="rId121" ref="E132"/>
+    <hyperlink r:id="rId122" ref="D133"/>
     <hyperlink r:id="rId123" ref="E134"/>
-    <hyperlink r:id="rId124" ref="D135"/>
-    <hyperlink r:id="rId125" ref="E135"/>
-    <hyperlink r:id="rId126" ref="D136"/>
-    <hyperlink r:id="rId127" ref="D138"/>
-    <hyperlink r:id="rId128" ref="D142"/>
+    <hyperlink r:id="rId124" ref="E135"/>
+    <hyperlink r:id="rId125" ref="D136"/>
+    <hyperlink r:id="rId126" ref="E136"/>
+    <hyperlink r:id="rId127" ref="D137"/>
+    <hyperlink r:id="rId128" ref="D139"/>
     <hyperlink r:id="rId129" ref="D143"/>
     <hyperlink r:id="rId130" ref="D144"/>
     <hyperlink r:id="rId131" ref="D145"/>
@@ -9586,8 +9637,8 @@
     <hyperlink r:id="rId174" ref="D188"/>
     <hyperlink r:id="rId175" ref="D189"/>
     <hyperlink r:id="rId176" ref="D190"/>
-    <hyperlink r:id="rId177" ref="E190"/>
-    <hyperlink r:id="rId178" ref="D191"/>
+    <hyperlink r:id="rId177" ref="D191"/>
+    <hyperlink r:id="rId178" ref="E191"/>
     <hyperlink r:id="rId179" ref="D192"/>
     <hyperlink r:id="rId180" ref="D193"/>
     <hyperlink r:id="rId181" ref="D194"/>
@@ -9598,22 +9649,22 @@
     <hyperlink r:id="rId186" ref="D199"/>
     <hyperlink r:id="rId187" ref="D200"/>
     <hyperlink r:id="rId188" ref="D201"/>
-    <hyperlink r:id="rId189" ref="E201"/>
-    <hyperlink r:id="rId190" ref="D202"/>
+    <hyperlink r:id="rId189" ref="D202"/>
+    <hyperlink r:id="rId190" ref="E202"/>
     <hyperlink r:id="rId191" ref="D203"/>
     <hyperlink r:id="rId192" ref="D204"/>
     <hyperlink r:id="rId193" ref="D205"/>
     <hyperlink r:id="rId194" ref="D206"/>
     <hyperlink r:id="rId195" ref="D207"/>
-    <hyperlink r:id="rId196" ref="E207"/>
-    <hyperlink r:id="rId197" ref="D208"/>
+    <hyperlink r:id="rId196" ref="D208"/>
+    <hyperlink r:id="rId197" ref="E208"/>
     <hyperlink r:id="rId198" ref="D209"/>
     <hyperlink r:id="rId199" ref="D210"/>
     <hyperlink r:id="rId200" ref="D211"/>
-    <hyperlink r:id="rId201" ref="D214"/>
-    <hyperlink r:id="rId202" ref="D216"/>
-    <hyperlink r:id="rId203" ref="B217"/>
-    <hyperlink r:id="rId204" ref="D217"/>
+    <hyperlink r:id="rId201" ref="D212"/>
+    <hyperlink r:id="rId202" ref="D215"/>
+    <hyperlink r:id="rId203" ref="D217"/>
+    <hyperlink r:id="rId204" ref="B218"/>
     <hyperlink r:id="rId205" ref="D218"/>
     <hyperlink r:id="rId206" ref="D219"/>
     <hyperlink r:id="rId207" ref="D220"/>
@@ -9631,43 +9682,44 @@
     <hyperlink r:id="rId219" ref="D232"/>
     <hyperlink r:id="rId220" ref="D233"/>
     <hyperlink r:id="rId221" ref="D234"/>
-    <hyperlink r:id="rId222" ref="E234"/>
-    <hyperlink r:id="rId223" ref="D235"/>
+    <hyperlink r:id="rId222" ref="D235"/>
+    <hyperlink r:id="rId223" ref="E235"/>
     <hyperlink r:id="rId224" ref="D236"/>
     <hyperlink r:id="rId225" ref="D237"/>
     <hyperlink r:id="rId226" ref="D238"/>
     <hyperlink r:id="rId227" ref="D239"/>
     <hyperlink r:id="rId228" ref="D240"/>
     <hyperlink r:id="rId229" ref="D241"/>
-    <hyperlink r:id="rId230" ref="E241"/>
-    <hyperlink r:id="rId231" ref="D242"/>
-    <hyperlink r:id="rId232" ref="E242"/>
-    <hyperlink r:id="rId233" location="/" ref="D243"/>
-    <hyperlink r:id="rId234" ref="E243"/>
-    <hyperlink r:id="rId235" ref="D244"/>
-    <hyperlink r:id="rId236" ref="D246"/>
-    <hyperlink r:id="rId237" ref="E246"/>
-    <hyperlink r:id="rId238" ref="D247"/>
+    <hyperlink r:id="rId230" ref="D242"/>
+    <hyperlink r:id="rId231" ref="E242"/>
+    <hyperlink r:id="rId232" ref="D243"/>
+    <hyperlink r:id="rId233" ref="E243"/>
+    <hyperlink r:id="rId234" location="/" ref="D244"/>
+    <hyperlink r:id="rId235" ref="E244"/>
+    <hyperlink r:id="rId236" ref="D245"/>
+    <hyperlink r:id="rId237" ref="D247"/>
+    <hyperlink r:id="rId238" ref="E247"/>
     <hyperlink r:id="rId239" ref="D248"/>
-    <hyperlink r:id="rId240" ref="E248"/>
-    <hyperlink r:id="rId241" ref="D249"/>
-    <hyperlink r:id="rId242" ref="E249"/>
-    <hyperlink r:id="rId243" ref="D250"/>
+    <hyperlink r:id="rId240" ref="D249"/>
+    <hyperlink r:id="rId241" ref="E249"/>
+    <hyperlink r:id="rId242" ref="D250"/>
+    <hyperlink r:id="rId243" ref="E250"/>
     <hyperlink r:id="rId244" ref="D251"/>
     <hyperlink r:id="rId245" ref="D252"/>
     <hyperlink r:id="rId246" ref="D253"/>
-    <hyperlink r:id="rId247" ref="E253"/>
-    <hyperlink r:id="rId248" ref="D254"/>
+    <hyperlink r:id="rId247" ref="D254"/>
+    <hyperlink r:id="rId248" ref="E254"/>
     <hyperlink r:id="rId249" ref="D255"/>
     <hyperlink r:id="rId250" ref="D256"/>
-    <hyperlink r:id="rId251" ref="E256"/>
-    <hyperlink r:id="rId252" ref="D257"/>
+    <hyperlink r:id="rId251" ref="D257"/>
+    <hyperlink r:id="rId252" ref="E257"/>
     <hyperlink r:id="rId253" ref="D258"/>
     <hyperlink r:id="rId254" ref="D259"/>
     <hyperlink r:id="rId255" ref="D260"/>
     <hyperlink r:id="rId256" ref="D261"/>
     <hyperlink r:id="rId257" ref="D262"/>
+    <hyperlink r:id="rId258" ref="D263"/>
   </hyperlinks>
-  <drawing r:id="rId258"/>
+  <drawing r:id="rId259"/>
 </worksheet>
 </file>